--- a/src/java/resources/excel_input_templates/Outputs_Summary_v2_ORIGINAL.xlsx
+++ b/src/java/resources/excel_input_templates/Outputs_Summary_v2_ORIGINAL.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgraves\OneDrive - Flowserve\AAProjects\RevenueRecognition\OutputSummary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_5106810071E48154A7FE47D0B2851B3701DE8FF8" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{304811E7-6B1C-4610-BE2E-06017C3968BD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12165" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Contract Summary" sheetId="1" r:id="rId1"/>
@@ -40,8 +34,8 @@
     <externalReference r:id="rId23"/>
   </externalReferences>
   <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Flowserve</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,12 +80,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Flowserve</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,12 +104,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Flowserve</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,12 +128,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Flowserve</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,12 +152,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Flowserve</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,12 +176,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Flowserve</author>
   </authors>
   <commentList>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
+    <comment ref="A16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,12 +201,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Flowserve</author>
   </authors>
   <commentList>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000001000000}">
+    <comment ref="A26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -230,12 +224,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Flowserve</author>
   </authors>
   <commentList>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1400-000001000000}">
+    <comment ref="A26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1309,7 +1303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1318,7 +1312,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2520,6 +2514,9 @@
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2582,21 +2579,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2" xfId="7"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 41" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 45" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2" xfId="6"/>
+    <cellStyle name="Normal 41" xfId="9"/>
+    <cellStyle name="Normal 45" xfId="8"/>
     <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2613,7 +2607,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions and Overview --&gt;"/>
@@ -2688,7 +2682,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="POCC Accumulator Overview"/>
@@ -2769,7 +2763,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2821,7 +2815,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3015,14 +3009,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3030,129 +3024,129 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="212" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="213" t="s">
         <v>316</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="212"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="212"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="212"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="212"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="212"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="212"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="212"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="212"/>
-      <c r="K14" s="212"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="212"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="212"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="212"/>
-      <c r="K16" s="212"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="213"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="213"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="213"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="213"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="213"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="213"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="213"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="213"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3163,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3171,129 +3165,129 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="212" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="213" t="s">
         <v>317</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="212"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="212"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="212"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="212"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="212"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="212"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="212"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="212"/>
-      <c r="K14" s="212"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="212"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="212"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="212"/>
-      <c r="K16" s="212"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="213"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="213"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="213"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="213"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="213"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="213"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="213"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="213"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3304,42 +3298,42 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="211" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="232" t="s">
+      <c r="N3" s="233" t="s">
         <v>230</v>
       </c>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="233"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="233"/>
+      <c r="R3" s="233"/>
+      <c r="S3" s="233"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="57">
         <v>43131</v>
       </c>
@@ -3398,7 +3392,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="111"/>
       <c r="N5" s="141"/>
       <c r="O5" s="142"/>
@@ -3407,350 +3401,350 @@
       <c r="R5" s="143"/>
       <c r="S5" s="144"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="112" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="113" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="116"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="117" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="116"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="115" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="118"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="119"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="118"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="120" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="118"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="121" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="118"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="118"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="115" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="115" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="119"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="124" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="15.75" thickBot="1">
       <c r="A56" s="125" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="15.75" thickTop="1"/>
+    <row r="58" spans="1:1">
       <c r="A58" s="126"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="112" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="121" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="127" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="128" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="127" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="15.75" thickBot="1">
       <c r="A64" s="129" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="15.75" thickTop="1">
       <c r="A65" s="116"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="121" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="127" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="127" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="127" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="127" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="120" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" s="116"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="116" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="15.75" thickBot="1">
       <c r="A74" s="129" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="15.75" thickTop="1">
       <c r="A75" s="114" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" s="116"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="121" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" s="127" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" s="127" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" s="127" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="128" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="127" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="114"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="130"/>
     </row>
   </sheetData>
@@ -3763,14 +3757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="68.42578125" style="201" customWidth="1"/>
     <col min="2" max="7" width="16.28515625" style="201" customWidth="1"/>
@@ -3798,31 +3792,31 @@
     <col min="32" max="16384" width="9.140625" style="201"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="204" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="197"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="197"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="199" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="194">
         <v>43251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="197"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="203"/>
       <c r="B7" s="200">
         <v>43131</v>
@@ -3843,7 +3837,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="204" t="s">
         <v>320</v>
       </c>
@@ -3854,7 +3848,7 @@
       <c r="F8" s="205"/>
       <c r="G8" s="205"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="202" t="s">
         <v>321</v>
       </c>
@@ -3877,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="202" t="s">
         <v>177</v>
       </c>
@@ -3900,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="206" t="s">
         <v>322</v>
       </c>
@@ -3923,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="202"/>
       <c r="B12" s="205"/>
       <c r="C12" s="205"/>
@@ -3932,7 +3926,7 @@
       <c r="F12" s="205"/>
       <c r="G12" s="205"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="204" t="str">
         <f>CONCATENATE(TEXT(A5,"m/d/yyyy")," Contract Asset / (Liability) Balance")</f>
         <v>5/31/2018 Contract Asset / (Liability) Balance</v>
@@ -3944,7 +3938,7 @@
       <c r="F13" s="205"/>
       <c r="G13" s="205"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="195" t="s">
         <v>323</v>
       </c>
@@ -3958,7 +3952,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="201" t="s">
         <v>327</v>
       </c>
@@ -3973,7 +3967,7 @@
         <v>2071778.3374252161</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="201" t="s">
         <v>328</v>
       </c>
@@ -3988,7 +3982,7 @@
         <v>987693.87858822662</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="201" t="s">
         <v>329</v>
       </c>
@@ -4003,7 +3997,7 @@
         <v>77942.630909090905</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="201" t="s">
         <v>330</v>
       </c>
@@ -4018,7 +4012,7 @@
         <v>13189091.761743035</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="201" t="s">
         <v>331</v>
       </c>
@@ -4033,7 +4027,7 @@
         <v>294133.02922815597</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="201" t="s">
         <v>332</v>
       </c>
@@ -4048,7 +4042,7 @@
         <v>5101147.6673554983</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="201" t="s">
         <v>333</v>
       </c>
@@ -4063,7 +4057,7 @@
         <v>3026246.310814702</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="201" t="s">
         <v>334</v>
       </c>
@@ -4078,7 +4072,7 @@
         <v>1743686.7002099063</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="201" t="s">
         <v>335</v>
       </c>
@@ -4093,7 +4087,7 @@
         <v>-326832.26161709568</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="201" t="s">
         <v>336</v>
       </c>
@@ -4108,7 +4102,7 @@
         <v>-639804.84361970681</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="201" t="s">
         <v>337</v>
       </c>
@@ -4123,7 +4117,7 @@
         <v>1602813.4390093684</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="201" t="s">
         <v>338</v>
       </c>
@@ -4138,7 +4132,7 @@
         <v>-5522.523548569181</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="201" t="s">
         <v>339</v>
       </c>
@@ -4153,7 +4147,7 @@
         <v>4776.131673706579</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="201" t="s">
         <v>340</v>
       </c>
@@ -4168,7 +4162,7 @@
         <v>6.875570397824049E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="201" t="s">
         <v>341</v>
       </c>
@@ -4183,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="201" t="s">
         <v>342</v>
       </c>
@@ -4198,7 +4192,7 @@
         <v>56279.13049088791</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="201" t="s">
         <v>343</v>
       </c>
@@ -4213,7 +4207,7 @@
         <v>52950</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A31="","",'[2]Contract Performance Summaries'!A31)</f>
         <v/>
@@ -4231,7 +4225,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A32="","",'[2]Contract Performance Summaries'!A32)</f>
         <v/>
@@ -4249,7 +4243,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A33="","",'[2]Contract Performance Summaries'!A33)</f>
         <v/>
@@ -4267,7 +4261,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A34="","",'[2]Contract Performance Summaries'!A34)</f>
         <v/>
@@ -4285,7 +4279,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A35="","",'[2]Contract Performance Summaries'!A35)</f>
         <v/>
@@ -4303,7 +4297,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A36="","",'[2]Contract Performance Summaries'!A36)</f>
         <v/>
@@ -4321,7 +4315,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A37="","",'[2]Contract Performance Summaries'!A37)</f>
         <v/>
@@ -4339,7 +4333,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A38="","",'[2]Contract Performance Summaries'!A38)</f>
         <v/>
@@ -4357,7 +4351,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A39="","",'[2]Contract Performance Summaries'!A39)</f>
         <v/>
@@ -4375,7 +4369,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A40="","",'[2]Contract Performance Summaries'!A40)</f>
         <v/>
@@ -4393,7 +4387,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A41="","",'[2]Contract Performance Summaries'!A41)</f>
         <v/>
@@ -4411,7 +4405,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A42="","",'[2]Contract Performance Summaries'!A42)</f>
         <v/>
@@ -4429,7 +4423,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A43="","",'[2]Contract Performance Summaries'!A43)</f>
         <v/>
@@ -4447,7 +4441,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A44="","",'[2]Contract Performance Summaries'!A44)</f>
         <v/>
@@ -4465,7 +4459,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A45="","",'[2]Contract Performance Summaries'!A45)</f>
         <v/>
@@ -4483,7 +4477,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A46="","",'[2]Contract Performance Summaries'!A46)</f>
         <v/>
@@ -4501,7 +4495,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A47="","",'[2]Contract Performance Summaries'!A47)</f>
         <v/>
@@ -4519,7 +4513,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A48="","",'[2]Contract Performance Summaries'!A48)</f>
         <v/>
@@ -4537,7 +4531,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A49="","",'[2]Contract Performance Summaries'!A49)</f>
         <v/>
@@ -4555,7 +4549,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A50="","",'[2]Contract Performance Summaries'!A50)</f>
         <v/>
@@ -4573,7 +4567,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A51="","",'[2]Contract Performance Summaries'!A51)</f>
         <v/>
@@ -4591,7 +4585,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A52="","",'[2]Contract Performance Summaries'!A52)</f>
         <v/>
@@ -4609,7 +4603,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A53="","",'[2]Contract Performance Summaries'!A53)</f>
         <v/>
@@ -4627,7 +4621,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A54="","",'[2]Contract Performance Summaries'!A54)</f>
         <v/>
@@ -4645,7 +4639,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A55="","",'[2]Contract Performance Summaries'!A55)</f>
         <v/>
@@ -4663,7 +4657,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A56="","",'[2]Contract Performance Summaries'!A56)</f>
         <v/>
@@ -4681,7 +4675,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A57="","",'[2]Contract Performance Summaries'!A57)</f>
         <v/>
@@ -4699,7 +4693,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A58="","",'[2]Contract Performance Summaries'!A58)</f>
         <v/>
@@ -4717,7 +4711,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A59="","",'[2]Contract Performance Summaries'!A59)</f>
         <v/>
@@ -4735,7 +4729,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A60="","",'[2]Contract Performance Summaries'!A60)</f>
         <v/>
@@ -4753,7 +4747,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A61="","",'[2]Contract Performance Summaries'!A61)</f>
         <v/>
@@ -4771,7 +4765,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A62="","",'[2]Contract Performance Summaries'!A62)</f>
         <v/>
@@ -4789,7 +4783,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A63="","",'[2]Contract Performance Summaries'!A63)</f>
         <v/>
@@ -4807,7 +4801,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A64="","",'[2]Contract Performance Summaries'!A64)</f>
         <v/>
@@ -4825,7 +4819,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A65="","",'[2]Contract Performance Summaries'!A65)</f>
         <v/>
@@ -4843,7 +4837,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A66="","",'[2]Contract Performance Summaries'!A66)</f>
         <v/>
@@ -4861,7 +4855,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A67="","",'[2]Contract Performance Summaries'!A67)</f>
         <v/>
@@ -4879,7 +4873,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A68="","",'[2]Contract Performance Summaries'!A68)</f>
         <v/>
@@ -4897,7 +4891,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A69="","",'[2]Contract Performance Summaries'!A69)</f>
         <v/>
@@ -4915,7 +4909,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A70="","",'[2]Contract Performance Summaries'!A70)</f>
         <v/>
@@ -4933,7 +4927,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A71="","",'[2]Contract Performance Summaries'!A71)</f>
         <v/>
@@ -4951,7 +4945,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A72="","",'[2]Contract Performance Summaries'!A72)</f>
         <v/>
@@ -4969,7 +4963,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A73="","",'[2]Contract Performance Summaries'!A73)</f>
         <v/>
@@ -4987,7 +4981,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A74="","",'[2]Contract Performance Summaries'!A74)</f>
         <v/>
@@ -5005,7 +4999,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A75="","",'[2]Contract Performance Summaries'!A75)</f>
         <v/>
@@ -5023,7 +5017,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A76="","",'[2]Contract Performance Summaries'!A76)</f>
         <v/>
@@ -5041,7 +5035,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A77="","",'[2]Contract Performance Summaries'!A77)</f>
         <v/>
@@ -5059,7 +5053,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A78="","",'[2]Contract Performance Summaries'!A78)</f>
         <v/>
@@ -5077,7 +5071,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A79="","",'[2]Contract Performance Summaries'!A79)</f>
         <v/>
@@ -5095,7 +5089,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A80="","",'[2]Contract Performance Summaries'!A80)</f>
         <v/>
@@ -5113,7 +5107,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A81="","",'[2]Contract Performance Summaries'!A81)</f>
         <v/>
@@ -5131,7 +5125,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A82="","",'[2]Contract Performance Summaries'!A82)</f>
         <v/>
@@ -5149,7 +5143,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A83="","",'[2]Contract Performance Summaries'!A83)</f>
         <v/>
@@ -5167,7 +5161,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A84="","",'[2]Contract Performance Summaries'!A84)</f>
         <v/>
@@ -5185,7 +5179,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A85="","",'[2]Contract Performance Summaries'!A85)</f>
         <v/>
@@ -5203,7 +5197,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A86="","",'[2]Contract Performance Summaries'!A86)</f>
         <v/>
@@ -5221,7 +5215,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A87="","",'[2]Contract Performance Summaries'!A87)</f>
         <v/>
@@ -5239,7 +5233,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A88="","",'[2]Contract Performance Summaries'!A88)</f>
         <v/>
@@ -5257,7 +5251,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A89="","",'[2]Contract Performance Summaries'!A89)</f>
         <v/>
@@ -5275,7 +5269,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A90="","",'[2]Contract Performance Summaries'!A90)</f>
         <v/>
@@ -5293,7 +5287,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A91="","",'[2]Contract Performance Summaries'!A91)</f>
         <v/>
@@ -5311,7 +5305,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A92="","",'[2]Contract Performance Summaries'!A92)</f>
         <v/>
@@ -5329,7 +5323,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A93="","",'[2]Contract Performance Summaries'!A93)</f>
         <v/>
@@ -5347,7 +5341,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A94="","",'[2]Contract Performance Summaries'!A94)</f>
         <v/>
@@ -5365,7 +5359,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A95="","",'[2]Contract Performance Summaries'!A95)</f>
         <v/>
@@ -5383,7 +5377,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A96="","",'[2]Contract Performance Summaries'!A96)</f>
         <v/>
@@ -5401,7 +5395,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A97="","",'[2]Contract Performance Summaries'!A97)</f>
         <v/>
@@ -5419,7 +5413,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A98="","",'[2]Contract Performance Summaries'!A98)</f>
         <v/>
@@ -5437,7 +5431,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A99="","",'[2]Contract Performance Summaries'!A99)</f>
         <v/>
@@ -5455,7 +5449,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A100="","",'[2]Contract Performance Summaries'!A100)</f>
         <v/>
@@ -5473,7 +5467,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A101="","",'[2]Contract Performance Summaries'!A101)</f>
         <v/>
@@ -5491,7 +5485,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A102="","",'[2]Contract Performance Summaries'!A102)</f>
         <v/>
@@ -5509,7 +5503,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A103="","",'[2]Contract Performance Summaries'!A103)</f>
         <v/>
@@ -5527,7 +5521,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A104="","",'[2]Contract Performance Summaries'!A104)</f>
         <v/>
@@ -5545,7 +5539,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A105="","",'[2]Contract Performance Summaries'!A105)</f>
         <v/>
@@ -5563,7 +5557,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A106="","",'[2]Contract Performance Summaries'!A106)</f>
         <v/>
@@ -5581,7 +5575,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A107="","",'[2]Contract Performance Summaries'!A107)</f>
         <v/>
@@ -5599,7 +5593,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A108="","",'[2]Contract Performance Summaries'!A108)</f>
         <v/>
@@ -5617,7 +5611,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A109="","",'[2]Contract Performance Summaries'!A109)</f>
         <v/>
@@ -5635,7 +5629,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A110="","",'[2]Contract Performance Summaries'!A110)</f>
         <v/>
@@ -5653,7 +5647,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A111="","",'[2]Contract Performance Summaries'!A111)</f>
         <v/>
@@ -5671,7 +5665,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A112="","",'[2]Contract Performance Summaries'!A112)</f>
         <v/>
@@ -5689,7 +5683,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A113="","",'[2]Contract Performance Summaries'!A113)</f>
         <v/>
@@ -5707,7 +5701,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A114="","",'[2]Contract Performance Summaries'!A114)</f>
         <v/>
@@ -5725,7 +5719,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A115="","",'[2]Contract Performance Summaries'!A115)</f>
         <v/>
@@ -5743,7 +5737,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A116="","",'[2]Contract Performance Summaries'!A116)</f>
         <v/>
@@ -5761,7 +5755,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A117="","",'[2]Contract Performance Summaries'!A117)</f>
         <v/>
@@ -5779,7 +5773,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A118="","",'[2]Contract Performance Summaries'!A118)</f>
         <v/>
@@ -5797,7 +5791,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A119="","",'[2]Contract Performance Summaries'!A119)</f>
         <v/>
@@ -5815,7 +5809,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A120="","",'[2]Contract Performance Summaries'!A120)</f>
         <v/>
@@ -5833,7 +5827,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A121="","",'[2]Contract Performance Summaries'!A121)</f>
         <v/>
@@ -5851,7 +5845,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A122="","",'[2]Contract Performance Summaries'!A122)</f>
         <v/>
@@ -5869,7 +5863,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A123="","",'[2]Contract Performance Summaries'!A123)</f>
         <v/>
@@ -5887,7 +5881,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A124="","",'[2]Contract Performance Summaries'!A124)</f>
         <v/>
@@ -5905,7 +5899,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A125="","",'[2]Contract Performance Summaries'!A125)</f>
         <v/>
@@ -5923,7 +5917,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A126="","",'[2]Contract Performance Summaries'!A126)</f>
         <v/>
@@ -5941,7 +5935,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A127="","",'[2]Contract Performance Summaries'!A127)</f>
         <v/>
@@ -5959,7 +5953,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A128="","",'[2]Contract Performance Summaries'!A128)</f>
         <v/>
@@ -5977,7 +5971,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A129="","",'[2]Contract Performance Summaries'!A129)</f>
         <v/>
@@ -5995,7 +5989,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A130="","",'[2]Contract Performance Summaries'!A130)</f>
         <v/>
@@ -6013,7 +6007,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A131="","",'[2]Contract Performance Summaries'!A131)</f>
         <v/>
@@ -6031,7 +6025,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A132="","",'[2]Contract Performance Summaries'!A132)</f>
         <v/>
@@ -6049,7 +6043,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A133="","",'[2]Contract Performance Summaries'!A133)</f>
         <v/>
@@ -6067,7 +6061,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A134="","",'[2]Contract Performance Summaries'!A134)</f>
         <v/>
@@ -6085,7 +6079,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A135="","",'[2]Contract Performance Summaries'!A135)</f>
         <v/>
@@ -6103,7 +6097,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A136="","",'[2]Contract Performance Summaries'!A136)</f>
         <v/>
@@ -6121,7 +6115,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A137="","",'[2]Contract Performance Summaries'!A137)</f>
         <v/>
@@ -6139,7 +6133,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A138="","",'[2]Contract Performance Summaries'!A138)</f>
         <v/>
@@ -6157,7 +6151,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A139="","",'[2]Contract Performance Summaries'!A139)</f>
         <v/>
@@ -6175,7 +6169,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A140="","",'[2]Contract Performance Summaries'!A140)</f>
         <v/>
@@ -6193,7 +6187,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A141="","",'[2]Contract Performance Summaries'!A141)</f>
         <v/>
@@ -6211,7 +6205,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A142="","",'[2]Contract Performance Summaries'!A142)</f>
         <v/>
@@ -6229,7 +6223,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A143="","",'[2]Contract Performance Summaries'!A143)</f>
         <v/>
@@ -6247,7 +6241,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A144="","",'[2]Contract Performance Summaries'!A144)</f>
         <v/>
@@ -6265,7 +6259,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A145="","",'[2]Contract Performance Summaries'!A145)</f>
         <v/>
@@ -6283,7 +6277,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A146="","",'[2]Contract Performance Summaries'!A146)</f>
         <v/>
@@ -6301,7 +6295,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A147="","",'[2]Contract Performance Summaries'!A147)</f>
         <v/>
@@ -6319,7 +6313,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A148="","",'[2]Contract Performance Summaries'!A148)</f>
         <v/>
@@ -6337,7 +6331,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A149="","",'[2]Contract Performance Summaries'!A149)</f>
         <v/>
@@ -6355,7 +6349,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A150="","",'[2]Contract Performance Summaries'!A150)</f>
         <v/>
@@ -6373,7 +6367,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A151="","",'[2]Contract Performance Summaries'!A151)</f>
         <v/>
@@ -6391,7 +6385,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A152="","",'[2]Contract Performance Summaries'!A152)</f>
         <v/>
@@ -6409,7 +6403,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A153="","",'[2]Contract Performance Summaries'!A153)</f>
         <v/>
@@ -6427,7 +6421,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A154="","",'[2]Contract Performance Summaries'!A154)</f>
         <v/>
@@ -6445,7 +6439,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A155="","",'[2]Contract Performance Summaries'!A155)</f>
         <v/>
@@ -6463,7 +6457,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A156="","",'[2]Contract Performance Summaries'!A156)</f>
         <v/>
@@ -6481,7 +6475,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A157="","",'[2]Contract Performance Summaries'!A157)</f>
         <v/>
@@ -6499,7 +6493,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A158="","",'[2]Contract Performance Summaries'!A158)</f>
         <v/>
@@ -6517,7 +6511,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A159="","",'[2]Contract Performance Summaries'!A159)</f>
         <v/>
@@ -6535,7 +6529,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A160="","",'[2]Contract Performance Summaries'!A160)</f>
         <v/>
@@ -6553,7 +6547,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A161="","",'[2]Contract Performance Summaries'!A161)</f>
         <v/>
@@ -6571,7 +6565,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A162="","",'[2]Contract Performance Summaries'!A162)</f>
         <v/>
@@ -6589,7 +6583,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A163="","",'[2]Contract Performance Summaries'!A163)</f>
         <v/>
@@ -6607,7 +6601,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A164="","",'[2]Contract Performance Summaries'!A164)</f>
         <v/>
@@ -6625,7 +6619,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A165="","",'[2]Contract Performance Summaries'!A165)</f>
         <v/>
@@ -6643,7 +6637,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A166="","",'[2]Contract Performance Summaries'!A166)</f>
         <v/>
@@ -6661,7 +6655,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A167="","",'[2]Contract Performance Summaries'!A167)</f>
         <v/>
@@ -6679,7 +6673,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A168="","",'[2]Contract Performance Summaries'!A168)</f>
         <v/>
@@ -6697,7 +6691,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A169="","",'[2]Contract Performance Summaries'!A169)</f>
         <v/>
@@ -6715,7 +6709,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A170="","",'[2]Contract Performance Summaries'!A170)</f>
         <v/>
@@ -6733,7 +6727,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A171="","",'[2]Contract Performance Summaries'!A171)</f>
         <v/>
@@ -6751,7 +6745,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A172="","",'[2]Contract Performance Summaries'!A172)</f>
         <v/>
@@ -6769,7 +6763,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A173="","",'[2]Contract Performance Summaries'!A173)</f>
         <v/>
@@ -6787,7 +6781,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A174="","",'[2]Contract Performance Summaries'!A174)</f>
         <v/>
@@ -6805,7 +6799,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A175="","",'[2]Contract Performance Summaries'!A175)</f>
         <v/>
@@ -6823,7 +6817,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A176="","",'[2]Contract Performance Summaries'!A176)</f>
         <v/>
@@ -6841,7 +6835,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A177="","",'[2]Contract Performance Summaries'!A177)</f>
         <v/>
@@ -6859,7 +6853,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A178="","",'[2]Contract Performance Summaries'!A178)</f>
         <v/>
@@ -6877,7 +6871,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A179="","",'[2]Contract Performance Summaries'!A179)</f>
         <v/>
@@ -6895,7 +6889,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A180="","",'[2]Contract Performance Summaries'!A180)</f>
         <v/>
@@ -6913,7 +6907,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A181="","",'[2]Contract Performance Summaries'!A181)</f>
         <v/>
@@ -6931,7 +6925,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A182="","",'[2]Contract Performance Summaries'!A182)</f>
         <v/>
@@ -6949,7 +6943,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A183="","",'[2]Contract Performance Summaries'!A183)</f>
         <v/>
@@ -6967,7 +6961,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A184="","",'[2]Contract Performance Summaries'!A184)</f>
         <v/>
@@ -6985,7 +6979,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A185="","",'[2]Contract Performance Summaries'!A185)</f>
         <v/>
@@ -7003,7 +6997,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A186="","",'[2]Contract Performance Summaries'!A186)</f>
         <v/>
@@ -7021,7 +7015,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A187="","",'[2]Contract Performance Summaries'!A187)</f>
         <v/>
@@ -7039,7 +7033,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A188="","",'[2]Contract Performance Summaries'!A188)</f>
         <v/>
@@ -7057,7 +7051,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A189="","",'[2]Contract Performance Summaries'!A189)</f>
         <v/>
@@ -7075,7 +7069,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A190="","",'[2]Contract Performance Summaries'!A190)</f>
         <v/>
@@ -7093,7 +7087,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A191="","",'[2]Contract Performance Summaries'!A191)</f>
         <v/>
@@ -7111,7 +7105,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A192="","",'[2]Contract Performance Summaries'!A192)</f>
         <v/>
@@ -7129,7 +7123,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A193="","",'[2]Contract Performance Summaries'!A193)</f>
         <v/>
@@ -7147,7 +7141,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A194="","",'[2]Contract Performance Summaries'!A194)</f>
         <v/>
@@ -7165,7 +7159,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A195="","",'[2]Contract Performance Summaries'!A195)</f>
         <v/>
@@ -7183,7 +7177,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A196="","",'[2]Contract Performance Summaries'!A196)</f>
         <v/>
@@ -7201,7 +7195,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A197="","",'[2]Contract Performance Summaries'!A197)</f>
         <v/>
@@ -7219,7 +7213,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A198="","",'[2]Contract Performance Summaries'!A198)</f>
         <v/>
@@ -7237,7 +7231,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="A200" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A199="","",'[2]Contract Performance Summaries'!A199)</f>
         <v/>
@@ -7255,7 +7249,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A200="","",'[2]Contract Performance Summaries'!A200)</f>
         <v/>
@@ -7273,7 +7267,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A201="","",'[2]Contract Performance Summaries'!A201)</f>
         <v/>
@@ -7291,7 +7285,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4">
       <c r="A203" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A202="","",'[2]Contract Performance Summaries'!A202)</f>
         <v/>
@@ -7309,7 +7303,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4">
       <c r="A204" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A203="","",'[2]Contract Performance Summaries'!A203)</f>
         <v/>
@@ -7327,7 +7321,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4">
       <c r="A205" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A204="","",'[2]Contract Performance Summaries'!A204)</f>
         <v/>
@@ -7345,7 +7339,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4">
       <c r="A206" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A205="","",'[2]Contract Performance Summaries'!A205)</f>
         <v/>
@@ -7363,7 +7357,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4">
       <c r="A207" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A206="","",'[2]Contract Performance Summaries'!A206)</f>
         <v/>
@@ -7381,7 +7375,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4">
       <c r="A208" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A207="","",'[2]Contract Performance Summaries'!A207)</f>
         <v/>
@@ -7399,7 +7393,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4">
       <c r="A209" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A208="","",'[2]Contract Performance Summaries'!A208)</f>
         <v/>
@@ -7417,7 +7411,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4">
       <c r="A210" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A209="","",'[2]Contract Performance Summaries'!A209)</f>
         <v/>
@@ -7435,7 +7429,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4">
       <c r="A211" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A210="","",'[2]Contract Performance Summaries'!A210)</f>
         <v/>
@@ -7453,7 +7447,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4">
       <c r="A212" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A211="","",'[2]Contract Performance Summaries'!A211)</f>
         <v/>
@@ -7471,7 +7465,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4">
       <c r="A213" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A212="","",'[2]Contract Performance Summaries'!A212)</f>
         <v/>
@@ -7489,7 +7483,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4">
       <c r="A214" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A213="","",'[2]Contract Performance Summaries'!A213)</f>
         <v/>
@@ -7507,7 +7501,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4">
       <c r="A215" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A214="","",'[2]Contract Performance Summaries'!A214)</f>
         <v/>
@@ -7525,7 +7519,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4">
       <c r="A216" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A215="","",'[2]Contract Performance Summaries'!A215)</f>
         <v/>
@@ -7543,7 +7537,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4">
       <c r="A217" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A216="","",'[2]Contract Performance Summaries'!A216)</f>
         <v/>
@@ -7561,7 +7555,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4">
       <c r="A218" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A217="","",'[2]Contract Performance Summaries'!A217)</f>
         <v/>
@@ -7579,7 +7573,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4">
       <c r="A219" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A218="","",'[2]Contract Performance Summaries'!A218)</f>
         <v/>
@@ -7597,7 +7591,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4">
       <c r="A220" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A219="","",'[2]Contract Performance Summaries'!A219)</f>
         <v/>
@@ -7615,7 +7609,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4">
       <c r="A221" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A220="","",'[2]Contract Performance Summaries'!A220)</f>
         <v/>
@@ -7633,7 +7627,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4">
       <c r="A222" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A221="","",'[2]Contract Performance Summaries'!A221)</f>
         <v/>
@@ -7651,7 +7645,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4">
       <c r="A223" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A222="","",'[2]Contract Performance Summaries'!A222)</f>
         <v/>
@@ -7669,7 +7663,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4">
       <c r="A224" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A223="","",'[2]Contract Performance Summaries'!A223)</f>
         <v/>
@@ -7687,7 +7681,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4">
       <c r="A225" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A224="","",'[2]Contract Performance Summaries'!A224)</f>
         <v/>
@@ -7705,7 +7699,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4">
       <c r="A226" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A225="","",'[2]Contract Performance Summaries'!A225)</f>
         <v/>
@@ -7723,7 +7717,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4">
       <c r="A227" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A226="","",'[2]Contract Performance Summaries'!A226)</f>
         <v/>
@@ -7741,7 +7735,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4">
       <c r="A228" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A227="","",'[2]Contract Performance Summaries'!A227)</f>
         <v/>
@@ -7759,7 +7753,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4">
       <c r="A229" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A228="","",'[2]Contract Performance Summaries'!A228)</f>
         <v/>
@@ -7777,7 +7771,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4">
       <c r="A230" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A229="","",'[2]Contract Performance Summaries'!A229)</f>
         <v/>
@@ -7795,7 +7789,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4">
       <c r="A231" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A230="","",'[2]Contract Performance Summaries'!A230)</f>
         <v/>
@@ -7813,7 +7807,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4">
       <c r="A232" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A231="","",'[2]Contract Performance Summaries'!A231)</f>
         <v/>
@@ -7831,7 +7825,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4">
       <c r="A233" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A232="","",'[2]Contract Performance Summaries'!A232)</f>
         <v/>
@@ -7849,7 +7843,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4">
       <c r="A234" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A233="","",'[2]Contract Performance Summaries'!A233)</f>
         <v/>
@@ -7867,7 +7861,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4">
       <c r="A235" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A234="","",'[2]Contract Performance Summaries'!A234)</f>
         <v/>
@@ -7885,7 +7879,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4">
       <c r="A236" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A235="","",'[2]Contract Performance Summaries'!A235)</f>
         <v/>
@@ -7903,7 +7897,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4">
       <c r="A237" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A236="","",'[2]Contract Performance Summaries'!A236)</f>
         <v/>
@@ -7921,7 +7915,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4">
       <c r="A238" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A237="","",'[2]Contract Performance Summaries'!A237)</f>
         <v/>
@@ -7939,7 +7933,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4">
       <c r="A239" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A238="","",'[2]Contract Performance Summaries'!A238)</f>
         <v/>
@@ -7957,7 +7951,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4">
       <c r="A240" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A239="","",'[2]Contract Performance Summaries'!A239)</f>
         <v/>
@@ -7975,7 +7969,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4">
       <c r="A241" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A240="","",'[2]Contract Performance Summaries'!A240)</f>
         <v/>
@@ -7993,7 +7987,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4">
       <c r="A242" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A241="","",'[2]Contract Performance Summaries'!A241)</f>
         <v/>
@@ -8011,7 +8005,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4">
       <c r="A243" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A242="","",'[2]Contract Performance Summaries'!A242)</f>
         <v/>
@@ -8029,7 +8023,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4">
       <c r="A244" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A243="","",'[2]Contract Performance Summaries'!A243)</f>
         <v/>
@@ -8047,7 +8041,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4">
       <c r="A245" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A244="","",'[2]Contract Performance Summaries'!A244)</f>
         <v/>
@@ -8065,7 +8059,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4">
       <c r="A246" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A245="","",'[2]Contract Performance Summaries'!A245)</f>
         <v/>
@@ -8083,7 +8077,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4">
       <c r="A247" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A246="","",'[2]Contract Performance Summaries'!A246)</f>
         <v/>
@@ -8101,7 +8095,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4">
       <c r="A248" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A247="","",'[2]Contract Performance Summaries'!A247)</f>
         <v/>
@@ -8119,7 +8113,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4">
       <c r="A249" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A248="","",'[2]Contract Performance Summaries'!A248)</f>
         <v/>
@@ -8137,7 +8131,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4">
       <c r="A250" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A249="","",'[2]Contract Performance Summaries'!A249)</f>
         <v/>
@@ -8155,7 +8149,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4">
       <c r="A251" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A250="","",'[2]Contract Performance Summaries'!A250)</f>
         <v/>
@@ -8173,7 +8167,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4">
       <c r="A252" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A251="","",'[2]Contract Performance Summaries'!A251)</f>
         <v/>
@@ -8191,7 +8185,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4">
       <c r="A253" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A252="","",'[2]Contract Performance Summaries'!A252)</f>
         <v/>
@@ -8209,7 +8203,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4">
       <c r="A254" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A253="","",'[2]Contract Performance Summaries'!A253)</f>
         <v/>
@@ -8227,7 +8221,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4">
       <c r="A255" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A254="","",'[2]Contract Performance Summaries'!A254)</f>
         <v/>
@@ -8245,7 +8239,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4">
       <c r="A256" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A255="","",'[2]Contract Performance Summaries'!A255)</f>
         <v/>
@@ -8263,7 +8257,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4">
       <c r="A257" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A256="","",'[2]Contract Performance Summaries'!A256)</f>
         <v/>
@@ -8281,7 +8275,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4">
       <c r="A258" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A257="","",'[2]Contract Performance Summaries'!A257)</f>
         <v/>
@@ -8299,7 +8293,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4">
       <c r="A259" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A258="","",'[2]Contract Performance Summaries'!A258)</f>
         <v/>
@@ -8317,7 +8311,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4">
       <c r="A260" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A259="","",'[2]Contract Performance Summaries'!A259)</f>
         <v/>
@@ -8335,7 +8329,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4">
       <c r="A261" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A260="","",'[2]Contract Performance Summaries'!A260)</f>
         <v/>
@@ -8353,7 +8347,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4">
       <c r="A262" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A261="","",'[2]Contract Performance Summaries'!A261)</f>
         <v/>
@@ -8371,7 +8365,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4">
       <c r="A263" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A262="","",'[2]Contract Performance Summaries'!A262)</f>
         <v/>
@@ -8389,7 +8383,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4">
       <c r="A264" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A263="","",'[2]Contract Performance Summaries'!A263)</f>
         <v/>
@@ -8407,7 +8401,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4">
       <c r="A265" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A264="","",'[2]Contract Performance Summaries'!A264)</f>
         <v/>
@@ -8425,7 +8419,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4">
       <c r="A266" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A265="","",'[2]Contract Performance Summaries'!A265)</f>
         <v/>
@@ -8443,7 +8437,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4">
       <c r="A267" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A266="","",'[2]Contract Performance Summaries'!A266)</f>
         <v/>
@@ -8461,7 +8455,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4">
       <c r="A268" s="201" t="str">
         <f>IF('[2]Contract Performance Summaries'!A267="","",'[2]Contract Performance Summaries'!A267)</f>
         <v/>
@@ -8485,40 +8479,40 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="232" t="s">
+      <c r="N3" s="233" t="s">
         <v>230</v>
       </c>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="233"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="233"/>
+      <c r="R3" s="233"/>
+      <c r="S3" s="233"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="57">
         <v>43131</v>
       </c>
@@ -8577,7 +8571,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="111"/>
       <c r="N5" s="141"/>
       <c r="O5" s="142"/>
@@ -8586,208 +8580,208 @@
       <c r="R5" s="143"/>
       <c r="S5" s="144"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="112" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="123" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="123" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="123" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="131" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="123" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="132"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1">
       <c r="A21" s="125" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15.75" thickTop="1">
       <c r="A22" s="116" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="130"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="112" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="123" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="132"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="133" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="123" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="132"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="123" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="132"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="15.75" thickBot="1">
       <c r="A37" s="129" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="15.75" thickTop="1"/>
+    <row r="39" spans="1:1">
       <c r="A39" s="134" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="135" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="132"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="130"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="136" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="128" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="128" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="137" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="128"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="128" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="128" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="137" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="128"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="128" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="128"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="138" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="128" t="s">
         <v>160</v>
       </c>
@@ -8802,7 +8796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8810,129 +8804,129 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="212" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="213" t="s">
         <v>318</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="212"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="212"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="212"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="212"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="212"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="212"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="212"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="212"/>
-      <c r="K14" s="212"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="212"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="212"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="212"/>
-      <c r="K16" s="212"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="213"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="213"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="213"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="213"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="213"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="213"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="213"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="213"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8943,21 +8937,21 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8966,7 +8960,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="57">
         <v>43220</v>
       </c>
@@ -9011,19 +9005,19 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="147" t="s">
         <v>231</v>
       </c>
       <c r="B4" s="147"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="148" t="s">
         <v>165</v>
       </c>
       <c r="B5" s="149"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="111" t="s">
         <v>232</v>
       </c>
@@ -9031,11 +9025,11 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="111"/>
       <c r="B7" s="151"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="133" t="s">
         <v>234</v>
       </c>
@@ -9043,11 +9037,11 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="133"/>
       <c r="B9" s="152"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="134" t="s">
         <v>236</v>
       </c>
@@ -9055,11 +9049,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="134"/>
       <c r="B11" s="152"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="134" t="s">
         <v>238</v>
       </c>
@@ -9067,11 +9061,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="134"/>
       <c r="B13" s="152"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="134" t="s">
         <v>103</v>
       </c>
@@ -9079,11 +9073,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="134"/>
       <c r="B15" s="152"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="153" t="s">
         <v>241</v>
       </c>
@@ -9091,11 +9085,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="133"/>
       <c r="B17" s="152"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="111" t="s">
         <v>243</v>
       </c>
@@ -9103,22 +9097,22 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="155" t="s">
         <v>174</v>
       </c>
       <c r="B19" s="156"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="B20" s="156"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="157" t="s">
         <v>169</v>
       </c>
       <c r="B21" s="158"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="111" t="s">
         <v>232</v>
       </c>
@@ -9126,11 +9120,11 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="111"/>
       <c r="B23" s="152"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="133" t="s">
         <v>234</v>
       </c>
@@ -9138,11 +9132,11 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="133"/>
       <c r="B25" s="152"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="133" t="s">
         <v>246</v>
       </c>
@@ -9150,11 +9144,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="133"/>
       <c r="B27" s="152"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="134" t="s">
         <v>248</v>
       </c>
@@ -9162,11 +9156,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="133"/>
       <c r="B29" s="152"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="134" t="s">
         <v>238</v>
       </c>
@@ -9174,11 +9168,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="134"/>
       <c r="B31" s="152"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="133" t="s">
         <v>103</v>
       </c>
@@ -9186,11 +9180,11 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="133"/>
       <c r="B33" s="152"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="153" t="s">
         <v>241</v>
       </c>
@@ -9198,11 +9192,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="133"/>
       <c r="B35" s="152"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="111" t="s">
         <v>243</v>
       </c>
@@ -9210,216 +9204,216 @@
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="155" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="159" t="s">
         <v>250</v>
       </c>
       <c r="B39" s="160"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="161" t="s">
         <v>251</v>
       </c>
       <c r="B40" s="162"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="161" t="s">
         <v>252</v>
       </c>
       <c r="B41" s="162"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="163" t="s">
         <v>253</v>
       </c>
       <c r="B42" s="164"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="162"/>
       <c r="B43" s="165"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="166" t="s">
         <v>254</v>
       </c>
       <c r="B44" s="161"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="167" t="s">
         <v>255</v>
       </c>
       <c r="B45" s="163"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="166"/>
       <c r="B46" s="161"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="168" t="s">
         <v>256</v>
       </c>
       <c r="B47" s="169"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="162"/>
       <c r="B48" s="165"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="162"/>
       <c r="B49" s="165"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="170" t="s">
         <v>257</v>
       </c>
       <c r="B50" s="171"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="161" t="s">
         <v>258</v>
       </c>
       <c r="B51" s="162"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="161" t="s">
         <v>259</v>
       </c>
       <c r="B52" s="162"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="163" t="s">
         <v>260</v>
       </c>
       <c r="B53" s="164"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="162"/>
       <c r="B54" s="165"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="166" t="s">
         <v>261</v>
       </c>
       <c r="B55" s="161"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="166" t="s">
         <v>262</v>
       </c>
       <c r="B56" s="161"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="167" t="s">
         <v>263</v>
       </c>
       <c r="B57" s="163"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="162"/>
       <c r="B58" s="165"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="168" t="s">
         <v>264</v>
       </c>
       <c r="B59" s="172"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="168"/>
       <c r="B60" s="172"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="161" t="s">
         <v>265</v>
       </c>
       <c r="B61" s="172"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="161" t="s">
         <v>266</v>
       </c>
       <c r="B62" s="172"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="163" t="s">
         <v>267</v>
       </c>
       <c r="B63" s="172"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="168"/>
       <c r="B64" s="172"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="162"/>
       <c r="B65" s="165"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="170" t="s">
         <v>268</v>
       </c>
       <c r="B66" s="160"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="161" t="s">
         <v>269</v>
       </c>
       <c r="B67" s="162"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="161" t="s">
         <v>270</v>
       </c>
       <c r="B68" s="162"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="161" t="s">
         <v>271</v>
       </c>
       <c r="B69" s="162"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="161" t="s">
         <v>272</v>
       </c>
       <c r="B70" s="162"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="173" t="s">
         <v>273</v>
       </c>
       <c r="B71" s="174"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="175"/>
       <c r="B72" s="150"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="175"/>
       <c r="B73" s="150"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="170" t="s">
         <v>274</v>
       </c>
       <c r="B74" s="160"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="176" t="s">
         <v>275</v>
       </c>
       <c r="B75" s="152"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="176"/>
       <c r="B76" s="152"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="162"/>
       <c r="B77" s="165"/>
     </row>
@@ -9430,26 +9424,26 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="177"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="57">
         <v>43220</v>
       </c>
@@ -9494,121 +9488,121 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="147" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="170" t="s">
         <v>278</v>
       </c>
       <c r="B4" s="160"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="179" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="180" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="119"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="180" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="119"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1">
       <c r="A8" s="181" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="119"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" thickTop="1">
       <c r="A9" s="132"/>
       <c r="B9" s="119"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="132"/>
       <c r="B10" s="119"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="170" t="s">
         <v>280</v>
       </c>
       <c r="B11" s="160"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="182" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="119"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="183" t="s">
         <v>281</v>
       </c>
       <c r="B13" s="119"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="183" t="s">
         <v>282</v>
       </c>
       <c r="B14" s="119"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="184" t="s">
         <v>283</v>
       </c>
       <c r="B15" s="119"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="185"/>
       <c r="B16" s="119"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="182" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="119"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="183" t="s">
         <v>281</v>
       </c>
       <c r="B18" s="119"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="183" t="s">
         <v>282</v>
       </c>
       <c r="B19" s="119"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="184" t="s">
         <v>284</v>
       </c>
       <c r="B20" s="119"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="186"/>
       <c r="B21" s="119"/>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1">
       <c r="A22" s="125" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="119"/>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.75" thickTop="1">
       <c r="A23" s="187"/>
       <c r="B23" s="152"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="187"/>
       <c r="B24" s="165"/>
     </row>
@@ -9618,28 +9612,28 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="177"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="57">
         <v>43220</v>
       </c>
@@ -9684,121 +9678,121 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="147" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="170" t="s">
         <v>278</v>
       </c>
       <c r="B4" s="160"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="179" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="180" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="119"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="180" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="119"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1">
       <c r="A8" s="181" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="119"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" thickTop="1">
       <c r="A9" s="132"/>
       <c r="B9" s="119"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="132"/>
       <c r="B10" s="119"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="170" t="s">
         <v>280</v>
       </c>
       <c r="B11" s="160"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="182" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="119"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="183" t="s">
         <v>281</v>
       </c>
       <c r="B13" s="119"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="183" t="s">
         <v>282</v>
       </c>
       <c r="B14" s="119"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="184" t="s">
         <v>283</v>
       </c>
       <c r="B15" s="119"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="185"/>
       <c r="B16" s="119"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="182" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="119"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="183" t="s">
         <v>281</v>
       </c>
       <c r="B18" s="119"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="183" t="s">
         <v>282</v>
       </c>
       <c r="B19" s="119"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="184" t="s">
         <v>284</v>
       </c>
       <c r="B20" s="119"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="186"/>
       <c r="B21" s="119"/>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1">
       <c r="A22" s="125" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="119"/>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.75" thickTop="1">
       <c r="A23" s="187"/>
       <c r="B23" s="152"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="187"/>
       <c r="B24" s="165"/>
     </row>
@@ -9808,28 +9802,28 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="177"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="57">
         <v>43220</v>
       </c>
@@ -9874,65 +9868,65 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="147" t="s">
         <v>288</v>
       </c>
       <c r="B3" s="147"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="189" t="s">
         <v>289</v>
       </c>
       <c r="B4" s="190"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="162" t="s">
         <v>290</v>
       </c>
       <c r="B5" s="165"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="162" t="s">
         <v>291</v>
       </c>
       <c r="B6" s="165"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1">
       <c r="A7" s="191" t="s">
         <v>292</v>
       </c>
       <c r="B7" s="165"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="177"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="57">
         <v>43220</v>
       </c>
@@ -9977,51 +9971,51 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="147" t="s">
         <v>288</v>
       </c>
       <c r="B3" s="147"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="189" t="s">
         <v>289</v>
       </c>
       <c r="B4" s="190"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="162" t="s">
         <v>290</v>
       </c>
       <c r="B5" s="165"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="162" t="s">
         <v>291</v>
       </c>
       <c r="B6" s="165"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1">
       <c r="A7" s="191" t="s">
         <v>292</v>
       </c>
       <c r="B7" s="165"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -10032,7 +10026,7 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -10043,7 +10037,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -10052,7 +10046,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -10063,20 +10057,20 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>43220</v>
       </c>
-      <c r="B4" s="214" t="s">
+      <c r="B4" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="216"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="217"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10091,7 +10085,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -10119,8 +10113,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="213" t="str">
+    <row r="7" spans="1:7">
+      <c r="A7" s="214" t="str">
         <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
         <v/>
       </c>
@@ -10143,8 +10137,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="213"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="214"/>
       <c r="B8" s="22" t="s">
         <v>22</v>
       </c>
@@ -10164,7 +10158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="6"/>
       <c r="B9" s="24" t="s">
         <v>27</v>
@@ -10185,76 +10179,76 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75" thickTop="1">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
@@ -10270,28 +10264,28 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="177"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="57">
         <v>43220</v>
       </c>
@@ -10336,19 +10330,19 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="147" t="s">
         <v>293</v>
       </c>
       <c r="B3" s="147"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="189" t="s">
         <v>294</v>
       </c>
       <c r="B4" s="192"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>295</v>
       </c>
@@ -10356,7 +10350,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -10364,7 +10358,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -10372,7 +10366,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>301</v>
       </c>
@@ -10380,7 +10374,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>302</v>
       </c>
@@ -10388,7 +10382,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -10396,67 +10390,67 @@
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="193" t="s">
         <v>306</v>
       </c>
       <c r="B18" s="193"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="155" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="155"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="189" t="s">
         <v>307</v>
       </c>
       <c r="B21" s="190"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="193" t="s">
         <v>308</v>
       </c>
       <c r="B22" s="193"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="193" t="s">
         <v>310</v>
       </c>
       <c r="B25" s="193"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="118" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="118" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="118"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="193" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="118" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="118" t="s">
         <v>312</v>
       </c>
@@ -10468,26 +10462,26 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="177"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="57">
         <v>43220</v>
       </c>
@@ -10532,19 +10526,19 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="147" t="s">
         <v>293</v>
       </c>
       <c r="B3" s="147"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="189" t="s">
         <v>294</v>
       </c>
       <c r="B4" s="192"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>295</v>
       </c>
@@ -10552,7 +10546,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -10560,7 +10554,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -10568,7 +10562,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>301</v>
       </c>
@@ -10576,7 +10570,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>302</v>
       </c>
@@ -10584,7 +10578,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -10592,67 +10586,67 @@
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="193" t="s">
         <v>306</v>
       </c>
       <c r="B18" s="193"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="155" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="155"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="189" t="s">
         <v>307</v>
       </c>
       <c r="B21" s="190"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="193" t="s">
         <v>308</v>
       </c>
       <c r="B22" s="193"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="193" t="s">
         <v>310</v>
       </c>
       <c r="B25" s="193"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="118" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="118" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="118"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="193" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="118" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="118" t="s">
         <v>312</v>
       </c>
@@ -10664,14 +10658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -10683,7 +10677,7 @@
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -10700,7 +10694,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="2"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -10715,7 +10709,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -10732,26 +10726,26 @@
       <c r="L3" s="11"/>
       <c r="M3" s="27"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="4">
         <v>43220</v>
       </c>
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="218"/>
-      <c r="M4" s="219"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="219"/>
+      <c r="K4" s="219"/>
+      <c r="L4" s="219"/>
+      <c r="M4" s="220"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10782,7 +10776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -10832,8 +10826,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="213" t="str">
+    <row r="7" spans="1:13">
+      <c r="A7" s="214" t="str">
         <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
         <v/>
       </c>
@@ -10868,8 +10862,8 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="213"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="214"/>
       <c r="B8" s="30" t="s">
         <v>30</v>
       </c>
@@ -10907,7 +10901,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="6"/>
       <c r="B9" s="32" t="s">
         <v>54</v>
@@ -10946,76 +10940,76 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75" thickTop="1">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
@@ -11031,14 +11025,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -11047,7 +11041,7 @@
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -11060,7 +11054,7 @@
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -11071,7 +11065,7 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -11084,22 +11078,22 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="4">
         <v>43220</v>
       </c>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="222"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="223"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11116,7 +11110,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -11152,44 +11146,44 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="213" t="str">
+    <row r="7" spans="1:9">
+      <c r="A7" s="214" t="str">
         <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
         <v/>
       </c>
-      <c r="B7" s="223" t="s">
+      <c r="B7" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="224"/>
-      <c r="I7" s="225"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="213"/>
-      <c r="B8" s="226" t="s">
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="226"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="214"/>
+      <c r="B8" s="227" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="228" t="s">
+      <c r="C8" s="228"/>
+      <c r="D8" s="229" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="229"/>
+      <c r="E8" s="230"/>
       <c r="F8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="228" t="s">
+      <c r="G8" s="229" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="227"/>
+      <c r="H8" s="228"/>
       <c r="I8" s="39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="40" t="s">
         <v>67</v>
@@ -11216,76 +11210,76 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75" thickTop="1">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
@@ -11305,14 +11299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -11321,7 +11315,7 @@
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -11334,7 +11328,7 @@
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -11345,7 +11339,7 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -11358,22 +11352,22 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="4">
         <v>43220</v>
       </c>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="222"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="223"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11390,7 +11384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -11426,44 +11420,44 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="213" t="str">
+    <row r="7" spans="1:9">
+      <c r="A7" s="214" t="str">
         <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
         <v/>
       </c>
-      <c r="B7" s="223" t="s">
+      <c r="B7" s="224" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="224"/>
-      <c r="I7" s="225"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="213"/>
-      <c r="B8" s="226" t="s">
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="226"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="214"/>
+      <c r="B8" s="227" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="228" t="s">
+      <c r="C8" s="228"/>
+      <c r="D8" s="229" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="229"/>
+      <c r="E8" s="230"/>
       <c r="F8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="228" t="s">
+      <c r="G8" s="229" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="227"/>
+      <c r="H8" s="228"/>
       <c r="I8" s="39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="40" t="s">
         <v>67</v>
@@ -11490,76 +11484,76 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75" thickTop="1">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
@@ -11579,14 +11573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -11595,7 +11589,7 @@
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -11608,7 +11602,7 @@
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -11619,7 +11613,7 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -11632,22 +11626,22 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="4">
         <v>43220</v>
       </c>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="222"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="223"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11664,7 +11658,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -11700,44 +11694,44 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="213" t="str">
+    <row r="7" spans="1:9">
+      <c r="A7" s="214" t="str">
         <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
         <v/>
       </c>
-      <c r="B7" s="223" t="s">
+      <c r="B7" s="224" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="224"/>
-      <c r="I7" s="225"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="213"/>
-      <c r="B8" s="226" t="s">
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="226"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="214"/>
+      <c r="B8" s="227" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="228" t="s">
+      <c r="C8" s="228"/>
+      <c r="D8" s="229" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="229"/>
+      <c r="E8" s="230"/>
       <c r="F8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="228" t="s">
+      <c r="G8" s="229" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="227"/>
+      <c r="H8" s="228"/>
       <c r="I8" s="39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="40" t="s">
         <v>67</v>
@@ -11764,76 +11758,76 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75" thickTop="1">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
@@ -11853,7 +11847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -11863,131 +11857,131 @@
       <selection activeCell="B22" sqref="B22:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="212" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="213" t="s">
         <v>315</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="212"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="212"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="212"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="212"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="212"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="212"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="212"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="212"/>
-      <c r="K14" s="212"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="212"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="212"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="212"/>
-      <c r="K16" s="212"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="213"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="213"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="213"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="213"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="213"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="213"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="213"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="213"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="209"/>
       <c r="C22" s="209"/>
       <c r="D22" s="209"/>
@@ -12006,14 +12000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -12021,7 +12015,7 @@
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>345</v>
       </c>
@@ -12040,7 +12034,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
@@ -12059,7 +12053,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="48" t="s">
@@ -12078,7 +12072,7 @@
       <c r="N3" s="49"/>
       <c r="O3" s="50"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="5"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -12095,7 +12089,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -12118,7 +12112,7 @@
       <c r="N5" s="55"/>
       <c r="O5" s="56"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="57">
         <f>'[1]Contract Summary by POb'!A4</f>
         <v>43220</v>
@@ -12148,7 +12142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="64"/>
       <c r="B7" s="64"/>
       <c r="C7" s="65"/>
@@ -12187,7 +12181,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="11"/>
       <c r="B8" s="64"/>
       <c r="C8" s="69" t="s">
@@ -12230,7 +12224,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="73" t="s">
         <v>3</v>
       </c>
@@ -12249,7 +12243,7 @@
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="75" t="s">
         <v>4</v>
       </c>
@@ -12300,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="75" t="s">
         <v>5</v>
       </c>
@@ -12351,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="75" t="s">
         <v>6</v>
       </c>
@@ -12402,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -12453,7 +12447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="75" t="s">
         <v>103</v>
       </c>
@@ -12505,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1">
       <c r="A15" s="79" t="s">
         <v>104</v>
       </c>
@@ -12563,8 +12557,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="233" t="s">
+    <row r="16" spans="1:15" ht="15.75" thickTop="1">
+      <c r="A16" s="212" t="s">
         <v>347</v>
       </c>
       <c r="B16" s="18"/>
@@ -12582,7 +12576,7 @@
       <c r="N16" s="74"/>
       <c r="O16" s="74"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="81" t="s">
         <v>105</v>
       </c>
@@ -12592,18 +12586,18 @@
       <c r="E17" s="82"/>
       <c r="F17" s="82"/>
       <c r="G17" s="83"/>
-      <c r="H17" s="230" t="s">
+      <c r="H17" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="231"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="231"/>
-      <c r="L17" s="231"/>
-      <c r="M17" s="231"/>
-      <c r="N17" s="231"/>
-      <c r="O17" s="231"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I17" s="232"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="232"/>
+      <c r="O17" s="232"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="84" t="s">
         <v>107</v>
       </c>
@@ -12619,16 +12613,16 @@
       <c r="G18" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="230"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="231"/>
-      <c r="L18" s="231"/>
-      <c r="M18" s="231"/>
-      <c r="N18" s="231"/>
-      <c r="O18" s="231"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H18" s="231"/>
+      <c r="I18" s="232"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="232"/>
+      <c r="L18" s="232"/>
+      <c r="M18" s="232"/>
+      <c r="N18" s="232"/>
+      <c r="O18" s="232"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="89" t="s">
         <v>111</v>
       </c>
@@ -12647,7 +12641,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="96" t="s">
         <v>112</v>
       </c>
@@ -12674,7 +12668,7 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="96" t="s">
         <v>114</v>
       </c>
@@ -12701,7 +12695,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="96" t="s">
         <v>116</v>
       </c>
@@ -12728,7 +12722,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="96" t="s">
         <v>118</v>
       </c>
@@ -12755,7 +12749,7 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="96" t="s">
         <v>120</v>
       </c>
@@ -12782,7 +12776,7 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="96" t="s">
         <v>122</v>
       </c>
@@ -12809,7 +12803,7 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="96" t="s">
         <v>124</v>
       </c>
@@ -12836,7 +12830,7 @@
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="96" t="s">
         <v>126</v>
       </c>
@@ -12863,7 +12857,7 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="96" t="s">
         <v>128</v>
       </c>
@@ -12890,7 +12884,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" ht="17.25">
       <c r="A29" s="96" t="s">
         <v>130</v>
       </c>
@@ -12917,7 +12911,7 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="96"/>
       <c r="B30" s="97"/>
       <c r="C30" s="91"/>
@@ -12940,7 +12934,7 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="105" t="s">
         <v>132</v>
       </c>
@@ -12959,7 +12953,7 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="96" t="s">
         <v>133</v>
       </c>
@@ -12986,7 +12980,7 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:15" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" ht="17.25">
       <c r="A33" s="96" t="s">
         <v>130</v>
       </c>
@@ -13013,7 +13007,7 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="96"/>
       <c r="B34" s="97"/>
       <c r="C34" s="91"/>
@@ -13036,7 +13030,7 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="105" t="s">
         <v>135</v>
       </c>
@@ -13055,7 +13049,7 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="96" t="s">
         <v>136</v>
       </c>
@@ -13082,7 +13076,7 @@
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="96" t="s">
         <v>138</v>
       </c>
@@ -13109,7 +13103,7 @@
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="1:15" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="17.25">
       <c r="A38" s="96" t="s">
         <v>140</v>
       </c>
@@ -13136,7 +13130,7 @@
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="96"/>
       <c r="B39" s="97"/>
       <c r="C39" s="91"/>
@@ -13159,7 +13153,7 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="105" t="s">
         <v>142</v>
       </c>
@@ -13178,7 +13172,7 @@
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="96" t="s">
         <v>143</v>
       </c>
@@ -13205,7 +13199,7 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
     </row>
-    <row r="42" spans="1:15" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" ht="17.25">
       <c r="A42" s="96" t="s">
         <v>130</v>
       </c>
@@ -13232,7 +13226,7 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="96"/>
       <c r="B43" s="97"/>
       <c r="C43" s="91"/>
@@ -13255,7 +13249,7 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="96"/>
       <c r="B44" s="97"/>
       <c r="C44" s="91"/>
@@ -13272,7 +13266,7 @@
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
     </row>
-    <row r="45" spans="1:15" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="17.25">
       <c r="A45" s="84"/>
       <c r="B45" s="86"/>
       <c r="C45" s="86"/>
@@ -13307,20 +13301,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>345</v>
       </c>
@@ -13339,7 +13333,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="47" t="s">
         <v>81</v>
       </c>
@@ -13358,7 +13352,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="48" t="s">
@@ -13377,7 +13371,7 @@
       <c r="N3" s="49"/>
       <c r="O3" s="50"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="5"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -13394,7 +13388,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -13417,7 +13411,7 @@
       <c r="N5" s="55"/>
       <c r="O5" s="56"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="57">
         <f>'[1]Contract Summary by POb'!A4</f>
         <v>43220</v>
@@ -13447,7 +13441,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="64"/>
       <c r="B7" s="64"/>
       <c r="C7" s="65"/>
@@ -13486,7 +13480,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="11"/>
       <c r="B8" s="64"/>
       <c r="C8" s="69" t="s">
@@ -13529,7 +13523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="73" t="s">
         <v>3</v>
       </c>
@@ -13548,7 +13542,7 @@
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="75" t="s">
         <v>4</v>
       </c>
@@ -13599,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="75" t="s">
         <v>5</v>
       </c>
@@ -13650,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="75" t="s">
         <v>6</v>
       </c>
@@ -13701,7 +13695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -13752,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="75" t="s">
         <v>103</v>
       </c>
@@ -13804,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1">
       <c r="A15" s="79" t="s">
         <v>104</v>
       </c>
@@ -13862,7 +13856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" thickTop="1">
       <c r="A16" s="75"/>
       <c r="B16" s="18"/>
       <c r="C16" s="74"/>
@@ -13879,7 +13873,7 @@
       <c r="N16" s="74"/>
       <c r="O16" s="74"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="81" t="s">
         <v>105</v>
       </c>
@@ -13889,18 +13883,18 @@
       <c r="E17" s="82"/>
       <c r="F17" s="82"/>
       <c r="G17" s="83"/>
-      <c r="H17" s="230" t="s">
+      <c r="H17" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="231"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="231"/>
-      <c r="L17" s="231"/>
-      <c r="M17" s="231"/>
-      <c r="N17" s="231"/>
-      <c r="O17" s="231"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I17" s="232"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="232"/>
+      <c r="O17" s="232"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="210" t="s">
         <v>346</v>
       </c>
@@ -13910,16 +13904,16 @@
       <c r="E18" s="91"/>
       <c r="F18" s="91"/>
       <c r="G18" s="208"/>
-      <c r="H18" s="230"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="231"/>
-      <c r="L18" s="231"/>
-      <c r="M18" s="231"/>
-      <c r="N18" s="231"/>
-      <c r="O18" s="231"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H18" s="231"/>
+      <c r="I18" s="232"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="232"/>
+      <c r="L18" s="232"/>
+      <c r="M18" s="232"/>
+      <c r="N18" s="232"/>
+      <c r="O18" s="232"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="84" t="s">
         <v>107</v>
       </c>
@@ -13935,16 +13929,16 @@
       <c r="G19" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="230"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="231"/>
-      <c r="L19" s="231"/>
-      <c r="M19" s="231"/>
-      <c r="N19" s="231"/>
-      <c r="O19" s="231"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H19" s="231"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="232"/>
+      <c r="M19" s="232"/>
+      <c r="N19" s="232"/>
+      <c r="O19" s="232"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="89" t="s">
         <v>111</v>
       </c>
@@ -13963,7 +13957,7 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="96" t="s">
         <v>112</v>
       </c>
@@ -13990,7 +13984,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="96" t="s">
         <v>114</v>
       </c>
@@ -14017,7 +14011,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="96" t="s">
         <v>116</v>
       </c>
@@ -14044,7 +14038,7 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="96" t="s">
         <v>118</v>
       </c>
@@ -14071,7 +14065,7 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="96" t="s">
         <v>120</v>
       </c>
@@ -14098,7 +14092,7 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="96" t="s">
         <v>122</v>
       </c>
@@ -14125,7 +14119,7 @@
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="96" t="s">
         <v>124</v>
       </c>
@@ -14152,7 +14146,7 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="96" t="s">
         <v>126</v>
       </c>
@@ -14179,7 +14173,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="96" t="s">
         <v>128</v>
       </c>
@@ -14206,7 +14200,7 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" ht="17.25">
       <c r="A30" s="96" t="s">
         <v>130</v>
       </c>
@@ -14233,7 +14227,7 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="96"/>
       <c r="B31" s="97"/>
       <c r="C31" s="91"/>
@@ -14256,7 +14250,7 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="105" t="s">
         <v>132</v>
       </c>
@@ -14275,7 +14269,7 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="96" t="s">
         <v>133</v>
       </c>
@@ -14302,7 +14296,7 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:15" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" ht="17.25">
       <c r="A34" s="96" t="s">
         <v>130</v>
       </c>
@@ -14329,7 +14323,7 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="96"/>
       <c r="B35" s="97"/>
       <c r="C35" s="91"/>
@@ -14352,7 +14346,7 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="105" t="s">
         <v>135</v>
       </c>
@@ -14371,7 +14365,7 @@
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="96" t="s">
         <v>136</v>
       </c>
@@ -14398,7 +14392,7 @@
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="96" t="s">
         <v>138</v>
       </c>
@@ -14425,7 +14419,7 @@
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
     </row>
-    <row r="39" spans="1:15" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" ht="17.25">
       <c r="A39" s="96" t="s">
         <v>140</v>
       </c>
@@ -14452,7 +14446,7 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="96"/>
       <c r="B40" s="97"/>
       <c r="C40" s="91"/>
@@ -14475,7 +14469,7 @@
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="105" t="s">
         <v>142</v>
       </c>
@@ -14494,7 +14488,7 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="96" t="s">
         <v>143</v>
       </c>
@@ -14521,7 +14515,7 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" ht="17.25">
       <c r="A43" s="96" t="s">
         <v>130</v>
       </c>
@@ -14548,7 +14542,7 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="96"/>
       <c r="B44" s="97"/>
       <c r="C44" s="91"/>
@@ -14571,7 +14565,7 @@
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="96"/>
       <c r="B45" s="97"/>
       <c r="C45" s="91"/>
@@ -14588,7 +14582,7 @@
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
     </row>
-    <row r="46" spans="1:15" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" ht="17.25">
       <c r="A46" s="84"/>
       <c r="B46" s="86"/>
       <c r="C46" s="86"/>
